--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1642844.987775078</v>
+        <v>1661219.677241198</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>206.0742554763939</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>147.8553302942855</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>194.027083666163</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>111.7472596836343</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>322.9413409399503</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0310673697215</v>
       </c>
       <c r="T7" t="n">
-        <v>83.82466560786651</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>164.4312074590985</v>
       </c>
       <c r="D8" t="n">
-        <v>311.5503547663033</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.687233328347274</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.35153719005503</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>111.1052230220428</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>106.7810959174222</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185922</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>224.8952567231534</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>216.1212311409556</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>72.90899546810253</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>76.31783716350172</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>64.34190763938523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>153.0952537370594</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>186.2821895672901</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>218.8434143404585</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>49.05684348591356</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>88.18589455074842</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>51.1825995188436</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>37.76066130688826</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>15.02228922158442</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>52.26397789250474</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>1.357427682428015</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>51.88428347680224</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4141,7 +4141,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>38.75176794468594</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>51.8842834768023</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.106519274536</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
         <v>548.527081850681</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2408.095583449934</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2408.095583449934</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2077.032696106363</v>
+        <v>1667.343086786222</v>
       </c>
       <c r="W5" t="n">
-        <v>2077.032696106363</v>
+        <v>1314.574431516108</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.566937845283</v>
+        <v>1314.574431516108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>924.4350995402963</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4732,43 +4732,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="T7" t="n">
-        <v>643.4576048045491</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>522.0369969642917</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>522.0369969642917</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1583.3782753568</v>
+        <v>1529.645519427257</v>
       </c>
       <c r="C8" t="n">
-        <v>1583.3782753568</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.84331964269</v>
@@ -4823,31 +4823,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332394</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332394</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970485</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626915</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.3782753568</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.3782753568</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.3782753568</v>
+        <v>1916.245359491379</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035062</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>58.67756093990718</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600568</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782195</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782195</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782195</v>
+        <v>76.52029211334934</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782195</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.0064718412589</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5036,34 +5036,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.5650202467748</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>558.5754693487575</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,16 +5291,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954972</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,13 +5528,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>1014.141587792751</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3459.155393916675</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.155393916675</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916675</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>4633.687647031309</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>4379.003158825422</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>4089.585988788462</v>
+        <v>856.9065713832073</v>
       </c>
       <c r="X19" t="n">
-        <v>3861.596437890445</v>
+        <v>856.9065713832073</v>
       </c>
       <c r="Y19" t="n">
-        <v>3640.803858746915</v>
+        <v>856.9065713832073</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,13 +5765,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281742</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945775</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164472</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3778.208216256917</v>
+        <v>489.1545025205813</v>
       </c>
       <c r="C22" t="n">
-        <v>3609.27203332901</v>
+        <v>489.1545025205813</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>339.0378631082456</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>339.0378631082456</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>339.0378631082456</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>170.8625414280662</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>3959.856681087157</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W22" t="n">
-        <v>3959.856681087157</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X22" t="n">
-        <v>3959.856681087157</v>
+        <v>670.8029673508211</v>
       </c>
       <c r="Y22" t="n">
-        <v>3959.856681087157</v>
+        <v>670.8029673508211</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281742</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945775</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4503.139178847509</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="C25" t="n">
-        <v>4334.202995919602</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="D25" t="n">
-        <v>4184.086356507267</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924874</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
         <v>4411.546387431056</v>
@@ -6172,25 +6172,25 @@
         <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>4684.787643677749</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T25" t="n">
-        <v>4684.787643677749</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U25" t="n">
-        <v>4684.787643677749</v>
+        <v>4171.432373839702</v>
       </c>
       <c r="V25" t="n">
-        <v>4684.787643677749</v>
+        <v>3916.747885633816</v>
       </c>
       <c r="W25" t="n">
-        <v>4684.787643677749</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="X25" t="n">
-        <v>4684.787643677749</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="Y25" t="n">
-        <v>4684.787643677749</v>
+        <v>3627.330715596855</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,19 +6221,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.607977814708</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3778.208216256921</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C28" t="n">
-        <v>3609.272033329014</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916678</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916678</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916678</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916678</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916678</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380588</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4148.020508932908</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>3959.856681087161</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>3959.856681087161</v>
+        <v>734.0491896863227</v>
       </c>
       <c r="X28" t="n">
-        <v>3959.856681087161</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="Y28" t="n">
-        <v>3959.856681087161</v>
+        <v>506.0596387883054</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653033</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6740,10 +6740,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3708.096708145162</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>4037.959335809194</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4317.499401027892</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4162.087918499594</v>
+        <v>3776.004670426976</v>
       </c>
       <c r="C34" t="n">
-        <v>3993.151735571687</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="D34" t="n">
-        <v>3843.035096159351</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="E34" t="n">
-        <v>3695.122002576958</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>3548.232055079048</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
         <v>3459.155393916676</v>
@@ -6883,25 +6883,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>4609.234967456266</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.72593422785</v>
+        <v>4320.106328669824</v>
       </c>
       <c r="V34" t="n">
-        <v>4571.72593422785</v>
+        <v>4065.421840463936</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.72593422785</v>
+        <v>3776.004670426976</v>
       </c>
       <c r="X34" t="n">
-        <v>4343.736383329833</v>
+        <v>3776.004670426976</v>
       </c>
       <c r="Y34" t="n">
-        <v>4343.736383329833</v>
+        <v>3776.004670426976</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011336</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265284</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483981</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3926.121309839311</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.185126911404</v>
+        <v>246.8937649665083</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.068487499069</v>
+        <v>246.8937649665083</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>246.8937649665083</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.72593422785</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>4571.72593422785</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W37" t="n">
-        <v>4556.551904711098</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X37" t="n">
-        <v>4328.562353813081</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y37" t="n">
-        <v>4107.769774669551</v>
+        <v>415.8299478944152</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7357,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1111.263855048118</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1111.263855048118</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>821.846685011157</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7427,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7497,19 +7497,19 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.6946978510159</v>
+        <v>823.5191931240375</v>
       </c>
       <c r="C43" t="n">
-        <v>561.6946978510159</v>
+        <v>823.5191931240375</v>
       </c>
       <c r="D43" t="n">
-        <v>411.5780584386802</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>411.5780584386802</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>411.5780584386802</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
         <v>359.1696912903951</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>964.1357418247858</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W43" t="n">
-        <v>964.1357418247858</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X43" t="n">
-        <v>964.1357418247858</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y43" t="n">
-        <v>743.3431626812556</v>
+        <v>823.5191931240375</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,40 +7631,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>3203.974306639288</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>3533.836934303321</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>4203.30069560598</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>509.2863307027308</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C46" t="n">
-        <v>509.2863307027308</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7831,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1348.697967175601</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1348.697967175601</v>
       </c>
       <c r="U46" t="n">
-        <v>911.7273746765006</v>
+        <v>1059.569328389159</v>
       </c>
       <c r="V46" t="n">
-        <v>911.7273746765006</v>
+        <v>804.8848401832718</v>
       </c>
       <c r="W46" t="n">
-        <v>911.7273746765006</v>
+        <v>804.8848401832718</v>
       </c>
       <c r="X46" t="n">
-        <v>911.7273746765006</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y46" t="n">
-        <v>690.9347955329705</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992653</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,28 +8769,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>297.2466435761029</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>285.1031356539329</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>219.9778004203345</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776731</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776731</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>234.411650950317</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>242.9997743936041</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>80.50021372615271</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>96.03744927814705</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>175.4177753145482</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>73.05088426451512</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.34209567542396</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>70.40176719563539</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>76.00483289943359</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>175.8198061603263</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24412,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.578902344218</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>133.1420986615179</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>65.85545375653788</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>67.67958399613249</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,22 +24841,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>237.4661548506774</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>78.30767391262917</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,22 +25123,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>170.3649615395456</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>107.660386716043</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>271.5007091150066</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25597,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>233.9733745060726</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>147.2580453357843</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>114.6092849865753</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>159.1690420389173</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>234.353068921775</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715715</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715715</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="F2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="G2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="G2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.3246721359</v>
-      </c>
       <c r="I2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721358</v>
@@ -26341,16 +26341,16 @@
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
         <v>488786.324672136</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,10 +26488,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336694.9495980457</v>
+        <v>-334166.6284346034</v>
       </c>
       <c r="C6" t="n">
-        <v>253272.9296164994</v>
+        <v>255801.2507799416</v>
       </c>
       <c r="D6" t="n">
-        <v>253272.9296164989</v>
+        <v>255801.2507799414</v>
       </c>
       <c r="E6" t="n">
-        <v>-159699.4025437756</v>
+        <v>-157664.5833057789</v>
       </c>
       <c r="F6" t="n">
-        <v>365460.63393312</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="G6" t="n">
-        <v>365460.6339331201</v>
+        <v>367495.453171117</v>
       </c>
       <c r="H6" t="n">
-        <v>365460.6339331201</v>
+        <v>367495.453171117</v>
       </c>
       <c r="I6" t="n">
-        <v>365460.6339331201</v>
+        <v>367495.4531711171</v>
       </c>
       <c r="J6" t="n">
-        <v>189037.4147405274</v>
+        <v>191072.2339785239</v>
       </c>
       <c r="K6" t="n">
-        <v>365460.6339331201</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="L6" t="n">
-        <v>365460.6339331201</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="M6" t="n">
-        <v>230659.6186992829</v>
+        <v>232694.4379372799</v>
       </c>
       <c r="N6" t="n">
-        <v>365460.6339331202</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="O6" t="n">
-        <v>365460.6339331202</v>
+        <v>367495.453171117</v>
       </c>
       <c r="P6" t="n">
-        <v>365460.6339331202</v>
+        <v>367495.4531711171</v>
       </c>
     </row>
   </sheetData>
@@ -26738,25 +26738,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.1986362946137</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>238.3826083617681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>38.28517746264737</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>92.49591467042799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>104.7010606740235</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4.810917530184611</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>8.114471580297362</v>
       </c>
       <c r="T7" t="n">
-        <v>141.2104398502178</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>200.841684311909</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1326868543797</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>40.51272586018968</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>229.786106133773</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -31279,10 +31279,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
         <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
         <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>296.222741532893</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>630.4412169741157</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>595.5275127043992</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>469.2355053763588</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>546.4549645786756</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091978</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091978</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>483.6693559063413</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.702428529907</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>450.0931893251287</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37400,10 +37400,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37640,7 +37640,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>362.8639159672608</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,13 +38105,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>366.1055152450486</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1736749.346906003</v>
+        <v>1729732.332014292</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800625</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10649678.81092546</v>
+        <v>10649678.81092545</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>50.04985889944329</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>339.6503918592879</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>40.68164393332412</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -867,13 +867,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>152.0983000926682</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>262.9810209066305</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>142.6621898072149</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>65.19933493875455</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>49.82707527435122</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.4617907661316</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>83.05158760959937</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.51033041214358</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.928357422960127</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>225.3155763760202</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>12.45256965056616</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7644211441605784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>33.35146980185944</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>30.60941330431293</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249808</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>206.8064269214885</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>58.43974171833774</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151923</v>
+        <v>153.0952537370584</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.1113436488122</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>101.3913673420934</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>136.0130338575996</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151925</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002185</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>529.4077037011218</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>529.4077037011218</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>529.4077037011218</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>118.4217989115143</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>104.4983948501052</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>104.4983948501052</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.8087152951862</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="C4" t="n">
-        <v>290.8087152951862</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D4" t="n">
-        <v>140.6920758828504</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E4" t="n">
-        <v>140.6920758828504</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F4" t="n">
-        <v>140.6920758828504</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>140.6920758828504</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>140.6920758828504</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4515,25 +4515,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951862</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951862</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951862</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.8087152951862</v>
+        <v>426.3476790823676</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1534.318342165212</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>1534.318342165212</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D5" t="n">
-        <v>1534.318342165212</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E5" t="n">
-        <v>1148.530089566967</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F5" t="n">
-        <v>737.54418477736</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G5" t="n">
-        <v>319.5803766755469</v>
+        <v>525.2409238118514</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>198.0462038478543</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1920.918182229334</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2080756496231</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>301.7863312341319</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>301.7863312341319</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>301.7863312341319</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>648.3816859950551</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>359.2080756496231</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>359.2080756496231</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>359.2080756496231</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>359.2080756496231</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2080756496231</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2339.59524198583</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.59524198583</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.826586715716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.826586715716</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>229.6312428658946</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>82.74129536798424</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>82.74129536798424</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>82.74129536798424</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>82.74129536798424</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>693.7339262489855</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>479.4455030671483</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>479.4455030671483</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>545.8631874464247</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>727.5116522766644</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>727.5116522766644</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>727.5116522766644</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,16 +5357,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.2349604684848</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>404.5984857229794</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>404.5984857229794</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>256.6853921405863</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>109.7954446426759</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>674.2349604684848</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>674.2349604684848</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X16" t="n">
-        <v>674.2349604684848</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.2349604684848</v>
+        <v>755.183133481126</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,13 +5527,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>498.9056400965599</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3492.843747251887</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="C19" t="n">
-        <v>3492.843747251887</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="D19" t="n">
-        <v>3492.843747251887</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="E19" t="n">
-        <v>3492.843747251887</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="F19" t="n">
-        <v>3492.843747251887</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="G19" t="n">
-        <v>3492.843747251887</v>
+        <v>278.5536992096283</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>128.1356907575716</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>4326.074044281177</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>4036.945405494735</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>3782.260917288848</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>3492.843747251887</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X19" t="n">
-        <v>3492.843747251887</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y19" t="n">
-        <v>3492.843747251887</v>
+        <v>446.7290208898078</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6174,10 +6174,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011506</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,67 +6211,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.8545730143</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231271</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141875</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126487</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571619</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636266</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688078</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473457</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387942</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018335</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514023</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795201</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6527,37 +6527,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.71878111552</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395483</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059516</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278214</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3855.296940664495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3686.360757736588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3686.360757736588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3686.360757736588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3686.360757736588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3518.185436056408</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4036.945405494735</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4036.945405494735</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,49 +6685,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6919,55 +6919,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1211.935115357083</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>957.2506271511957</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W37" t="n">
-        <v>667.8334571142351</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X37" t="n">
-        <v>667.8334571142351</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.040877970705</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,67 +7159,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>349.7492534403927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>349.7492534403927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>199.632614028057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>199.632614028057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>199.632614028057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>199.632614028057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>199.632614028057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>531.3977182706325</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>531.3977182706325</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>531.3977182706325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>549.6692635248398</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>549.6692635248398</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3177283550796</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,16 +7824,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776757</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>87.16935584025435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776703</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711574</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776705</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714811</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714801</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>61.2074219605708</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>154.0409988128114</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>251.3732221796674</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>115.5623585656767</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>79.80983215995906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>14.7411341369008</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>90.47408664919837</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.393833183385</v>
+        <v>133.142098661519</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>2.126008749765106</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>9.02787812217403</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>12.60243916061279</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338488</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26337,22 +26337,22 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721363</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721359</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925945</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26438,28 +26438,28 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871675</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334166.6284346035</v>
+        <v>-334166.6284346033</v>
       </c>
       <c r="C6" t="n">
-        <v>255801.2507799417</v>
+        <v>255801.2507799414</v>
       </c>
       <c r="D6" t="n">
         <v>255801.2507799416</v>
       </c>
       <c r="E6" t="n">
-        <v>-157664.583305779</v>
+        <v>-158639.1745655009</v>
       </c>
       <c r="F6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113951</v>
       </c>
       <c r="G6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="H6" t="n">
-        <v>367495.4531711171</v>
+        <v>366520.8619113954</v>
       </c>
       <c r="I6" t="n">
-        <v>367495.453171117</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="J6" t="n">
-        <v>191072.2339785227</v>
+        <v>190097.6427188023</v>
       </c>
       <c r="K6" t="n">
-        <v>367495.4531711172</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="L6" t="n">
-        <v>367495.4531711176</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="M6" t="n">
-        <v>232694.4379372798</v>
+        <v>231719.8466775581</v>
       </c>
       <c r="N6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="O6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113952</v>
       </c>
       <c r="P6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113953</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541017</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26813,19 +26813,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990176</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990174</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545573</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>101.881457345418</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>9.590576858125132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.2839778590141</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>60.04723885735075</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>60.94175185772662</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>9.269126437646349</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>80.2217130841767</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>175.2080301837331</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061302</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>168.1725798986899</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>16.68962877639342</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>141.7368345571977</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30401,7 +30401,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>237.7447944281936</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091955</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303264</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336954</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.606025510911</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109101</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1729732.332014292</v>
+        <v>1734671.594863324</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10649678.81092545</v>
+        <v>10649678.81092546</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86.23085044538978</v>
       </c>
       <c r="I2" t="n">
-        <v>50.04985889944329</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>328.4378163475054</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>142.6621898072149</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>65.19933493875455</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>163.0793702451207</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.4617907661316</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>96.36163317610269</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.46389722690829</v>
       </c>
       <c r="J10" t="n">
-        <v>28.51033041214358</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>225.3155763760202</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431727</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>12.45256965056616</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>131.8509395269514</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>110.9521493194458</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>30.60941330431293</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>45.88631238695849</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>28.33724577870906</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0952537370584</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>36.92853936679001</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>155.8385935972304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>160.6213003313932</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>136.0130338575996</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>27.26009267756244</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>135.7789877804221</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.3702206415335</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C2" t="n">
-        <v>529.4077037011218</v>
+        <v>924.2198584148889</v>
       </c>
       <c r="D2" t="n">
-        <v>529.4077037011218</v>
+        <v>565.9541598081385</v>
       </c>
       <c r="E2" t="n">
-        <v>529.4077037011218</v>
+        <v>565.9541598081385</v>
       </c>
       <c r="F2" t="n">
-        <v>118.4217989115143</v>
+        <v>154.9682550185309</v>
       </c>
       <c r="G2" t="n">
-        <v>104.4983948501052</v>
+        <v>141.0448509571218</v>
       </c>
       <c r="H2" t="n">
-        <v>104.4983948501052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X2" t="n">
-        <v>1675.109392681467</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y2" t="n">
-        <v>1284.970060705655</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="3">
@@ -4409,10 +4409,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.109828622464</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="C5" t="n">
-        <v>546.109828622464</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="D5" t="n">
-        <v>546.109828622464</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="E5" t="n">
-        <v>546.109828622464</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="F5" t="n">
-        <v>539.1643278732605</v>
+        <v>539.16432787326</v>
       </c>
       <c r="G5" t="n">
-        <v>525.2409238118514</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>198.0462038478543</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,10 +4591,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
@@ -4603,16 +4603,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.7225141620388</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="C7" t="n">
-        <v>301.7863312341319</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="D7" t="n">
-        <v>301.7863312341319</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>301.7863312341319</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>563.4023475952011</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>1320.24122488254</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563625</v>
+        <v>961.9755262757897</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>576.1872736775454</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>569.2417729283419</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>151.2779648265288</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482877</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482877</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>229.6312428658946</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>82.74129536798424</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>82.74129536798424</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>82.74129536798424</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I10" t="n">
-        <v>82.74129536798424</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608942</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.8631874464247</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185178</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185178</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185178</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799324</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471151</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="W13" t="n">
-        <v>727.5116522766644</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="X13" t="n">
-        <v>727.5116522766644</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.5116522766644</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211719</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011334</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967825</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>573.5346686508863</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>404.5984857229794</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>404.5984857229794</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>256.6853921405863</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>109.7954446426759</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>755.183133481126</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="X16" t="n">
-        <v>755.183133481126</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y16" t="n">
-        <v>755.183133481126</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.7290208898078</v>
+        <v>677.999939105308</v>
       </c>
       <c r="C19" t="n">
-        <v>446.7290208898078</v>
+        <v>677.999939105308</v>
       </c>
       <c r="D19" t="n">
-        <v>446.7290208898078</v>
+        <v>527.8832996929723</v>
       </c>
       <c r="E19" t="n">
-        <v>446.7290208898078</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>446.7290208898078</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>278.5536992096283</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>128.1356907575716</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878251</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X19" t="n">
-        <v>446.7290208898078</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.7290208898078</v>
+        <v>677.999939105308</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5837,16 +5837,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6074,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>588.7879514845233</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>588.7879514845233</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>440.8748579021302</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>293.9849104042198</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6411,10 +6411,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011506</v>
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6457,25 +6457,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>275.9572114571762</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>125.8405720448405</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>809.4940713833126</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V34" t="n">
-        <v>554.8095831774258</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="W34" t="n">
-        <v>265.3924131404652</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1341.503549752619</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.6692635248398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6692635248398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W43" t="n">
-        <v>731.3177283550796</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>731.3177283550796</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.3177283550796</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1361.765777850405</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>912.983647808858</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>73.53204524670107</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>159.0121003135249</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11144,10 +11144,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>32.78140656352423</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>61.2074219605708</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330892206</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>154.0409988128114</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>154.6720588096396</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>35.48181332712335</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>79.80983215995906</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>120.6072560764191</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>118.0967168678601</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>215.209103957038</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>96.29904972659759</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>60.92626072699608</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>12.60243916061279</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>259.2629056590285</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>150.7440105561689</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="K2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
@@ -26349,13 +26349,13 @@
         <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26447,7 +26447,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,10 +26499,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26527,43 +26527,43 @@
         <v>255801.2507799414</v>
       </c>
       <c r="D6" t="n">
-        <v>255801.2507799416</v>
+        <v>255801.2507799414</v>
       </c>
       <c r="E6" t="n">
-        <v>-158639.1745655009</v>
+        <v>-157762.0424317513</v>
       </c>
       <c r="F6" t="n">
-        <v>366520.8619113951</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="G6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="H6" t="n">
-        <v>366520.8619113954</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="I6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="J6" t="n">
-        <v>190097.6427188023</v>
+        <v>190974.7748525519</v>
       </c>
       <c r="K6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451446</v>
       </c>
       <c r="L6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451447</v>
       </c>
       <c r="M6" t="n">
-        <v>231719.8466775581</v>
+        <v>232596.9788113076</v>
       </c>
       <c r="N6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451449</v>
       </c>
       <c r="O6" t="n">
-        <v>366520.8619113952</v>
+        <v>367397.9940451447</v>
       </c>
       <c r="P6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451449</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>237.6919223189674</v>
       </c>
       <c r="I2" t="n">
-        <v>101.881457345418</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>85.34635367328963</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>9.269126437646349</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>80.2217130841767</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>55.50528310697408</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061302</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>227.5611395882545</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68962877639342</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346402</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799245</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>366.1055152450495</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>282.0391115195485</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
